--- a/data/trans_camb/P2A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Estudios-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna limitación</t>
+          <t>Hogares con personas con alguna condición</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 8,22</t>
+          <t>-0,33; 8,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 8,91</t>
+          <t>-0,96; 8,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,97; 18,53</t>
+          <t>9,23; 19,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,79</t>
+          <t>-2,91; 4,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 9,47</t>
+          <t>1,78; 9,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 4,34</t>
+          <t>-3,74; 4,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 4,99</t>
+          <t>-0,69; 5,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 7,96</t>
+          <t>1,69; 7,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 9,59</t>
+          <t>3,36; 9,39</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 17,36</t>
+          <t>-0,64; 17,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 18,56</t>
+          <t>-1,82; 18,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,0; 39,55</t>
+          <t>17,79; 40,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 8,24</t>
+          <t>-4,86; 8,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 16,86</t>
+          <t>2,87; 16,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 7,68</t>
+          <t>-6,09; 7,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 9,28</t>
+          <t>-1,29; 9,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 14,71</t>
+          <t>3,0; 14,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,57; 17,86</t>
+          <t>5,91; 17,49</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,13</t>
+          <t>0,9; 7,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 9,59</t>
+          <t>3,01; 9,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41,97; 48,63</t>
+          <t>42,15; 48,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 5,93</t>
+          <t>-1,24; 5,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 5,98</t>
+          <t>-0,68; 6,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,86; 36,38</t>
+          <t>27,7; 35,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,64</t>
+          <t>0,71; 5,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 7,17</t>
+          <t>2,39; 7,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>35,94; 41,12</t>
+          <t>36,03; 41,13</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 23,45</t>
+          <t>2,69; 23,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,79; 31,71</t>
+          <t>8,66; 30,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>122,7; 162,31</t>
+          <t>123,84; 161,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 14,5</t>
+          <t>-2,77; 14,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 14,58</t>
+          <t>-1,5; 14,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,96; 87,44</t>
+          <t>61,27; 86,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 15,82</t>
+          <t>1,99; 15,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,76; 19,98</t>
+          <t>6,16; 19,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>92,05; 113,54</t>
+          <t>93,21; 114,65</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 9,31</t>
+          <t>-2,76; 9,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 6,69</t>
+          <t>-5,39; 7,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,45; 50,04</t>
+          <t>39,6; 50,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 5,77</t>
+          <t>-7,8; 5,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 4,03</t>
+          <t>-7,92; 4,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,24; 37,97</t>
+          <t>27,02; 37,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 5,67</t>
+          <t>-3,53; 5,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 4,49</t>
+          <t>-5,02; 3,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,97; 42,85</t>
+          <t>34,62; 42,52</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 30,94</t>
+          <t>-7,54; 31,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 22,39</t>
+          <t>-15,72; 23,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>107,18; 170,56</t>
+          <t>109,28; 174,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 15,11</t>
+          <t>-17,73; 13,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 10,4</t>
+          <t>-17,94; 11,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>59,78; 101,82</t>
+          <t>59,65; 102,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 16,32</t>
+          <t>-9,32; 15,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 13,18</t>
+          <t>-12,78; 11,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>88,87; 126,61</t>
+          <t>86,96; 125,26</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,71</t>
+          <t>0,89; 5,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 6,01</t>
+          <t>0,61; 5,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>35,27; 40,06</t>
+          <t>34,99; 40,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 3,72</t>
+          <t>-1,28; 3,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 3,53</t>
+          <t>-1,41; 3,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,49; 25,29</t>
+          <t>19,58; 25,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,13</t>
+          <t>0,52; 4,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,86</t>
+          <t>0,26; 3,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,72; 31,59</t>
+          <t>27,72; 31,35</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,05; 15,6</t>
+          <t>2,24; 14,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,53; 16,28</t>
+          <t>1,55; 14,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>89,76; 110,16</t>
+          <t>88,75; 109,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 7,72</t>
+          <t>-2,55; 7,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 7,35</t>
+          <t>-2,81; 7,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>38,87; 52,81</t>
+          <t>38,79; 52,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,01; 9,69</t>
+          <t>1,23; 9,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,97; 9,12</t>
+          <t>0,68; 9,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>62,37; 74,42</t>
+          <t>61,71; 73,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 8,36</t>
+          <t>-1,39; 8,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 8,62</t>
+          <t>-0,9; 8,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,23; 19,02</t>
+          <t>9,01; 18,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 4,79</t>
+          <t>-2,69; 5,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 9,83</t>
+          <t>1,2; 9,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 4,25</t>
+          <t>-3,66; 4,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 5,16</t>
+          <t>-0,72; 5,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 7,96</t>
+          <t>1,64; 8,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 9,39</t>
+          <t>3,31; 9,27</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 17,51</t>
+          <t>-2,68; 16,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 18,02</t>
+          <t>-1,75; 17,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,79; 40,25</t>
+          <t>17,35; 39,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 8,38</t>
+          <t>-4,47; 9,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 16,9</t>
+          <t>1,92; 17,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 7,32</t>
+          <t>-5,96; 7,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 9,56</t>
+          <t>-1,26; 9,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 14,87</t>
+          <t>2,83; 15,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 17,49</t>
+          <t>5,83; 17,05</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 7,28</t>
+          <t>0,82; 7,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 9,48</t>
+          <t>3,4; 9,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42,15; 48,45</t>
+          <t>41,9; 48,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 5,79</t>
+          <t>-1,32; 5,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 6,12</t>
+          <t>-0,47; 6,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,7; 35,9</t>
+          <t>27,77; 35,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 5,5</t>
+          <t>0,65; 5,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 7,0</t>
+          <t>2,18; 6,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>36,03; 41,13</t>
+          <t>36,12; 41,31</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 23,73</t>
+          <t>2,47; 24,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,66; 30,5</t>
+          <t>9,72; 31,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>123,84; 161,46</t>
+          <t>123,05; 161,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 14,16</t>
+          <t>-2,95; 14,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 14,93</t>
+          <t>-1,08; 16,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,27; 86,19</t>
+          <t>61,67; 86,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 15,36</t>
+          <t>1,65; 15,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,16; 19,43</t>
+          <t>5,69; 19,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93,21; 114,65</t>
+          <t>93,31; 114,62</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 9,36</t>
+          <t>-3,74; 8,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 7,17</t>
+          <t>-4,93; 6,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,6; 50,23</t>
+          <t>39,64; 49,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 5,09</t>
+          <t>-7,92; 5,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 4,43</t>
+          <t>-8,4; 4,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,02; 37,92</t>
+          <t>27,01; 38,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 5,4</t>
+          <t>-3,65; 5,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 3,89</t>
+          <t>-4,52; 4,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,62; 42,52</t>
+          <t>34,99; 43,17</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 31,88</t>
+          <t>-10,06; 30,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 23,95</t>
+          <t>-13,77; 22,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>109,28; 174,19</t>
+          <t>109,54; 170,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 13,54</t>
+          <t>-17,48; 14,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 11,52</t>
+          <t>-18,7; 11,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>59,65; 102,51</t>
+          <t>58,58; 103,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 15,73</t>
+          <t>-9,51; 15,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 11,2</t>
+          <t>-11,51; 12,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>86,96; 125,26</t>
+          <t>88,17; 129,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,45</t>
+          <t>1,07; 5,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,53</t>
+          <t>0,84; 5,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34,99; 40,09</t>
+          <t>35,12; 39,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,75</t>
+          <t>-1,17; 3,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,44</t>
+          <t>-1,5; 3,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,58; 25,36</t>
+          <t>19,47; 25,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,16</t>
+          <t>0,53; 4,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,84</t>
+          <t>0,47; 3,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,72; 31,35</t>
+          <t>27,84; 31,46</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,24; 14,94</t>
+          <t>2,81; 15,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,55; 14,96</t>
+          <t>2,16; 15,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>88,75; 109,56</t>
+          <t>90,11; 110,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 7,87</t>
+          <t>-2,33; 7,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 7,25</t>
+          <t>-2,97; 7,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>38,79; 52,93</t>
+          <t>38,61; 51,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,23; 9,82</t>
+          <t>1,21; 9,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,68; 9,08</t>
+          <t>1,09; 9,04</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>61,71; 73,38</t>
+          <t>62,24; 73,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 8,07</t>
+          <t>-0,82; 8,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 8,3</t>
+          <t>-0,65; 8,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,01; 18,99</t>
+          <t>8,97; 18,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 5,21</t>
+          <t>-3,0; 4,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 9,93</t>
+          <t>1,48; 9,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 4,46</t>
+          <t>-3,44; 4,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 5,26</t>
+          <t>-0,62; 4,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 8,15</t>
+          <t>1,57; 7,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,31; 9,27</t>
+          <t>3,19; 9,59</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 16,84</t>
+          <t>-1,51; 17,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 17,55</t>
+          <t>-1,31; 18,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,35; 39,87</t>
+          <t>18,0; 39,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 9,0</t>
+          <t>-4,85; 8,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 17,05</t>
+          <t>2,53; 16,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 7,77</t>
+          <t>-5,56; 7,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 9,73</t>
+          <t>-1,23; 9,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 15,14</t>
+          <t>2,77; 14,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,83; 17,05</t>
+          <t>5,57; 17,86</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,39</t>
+          <t>0,8; 7,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 9,56</t>
+          <t>3,33; 9,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41,9; 48,49</t>
+          <t>41,97; 48,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 5,8</t>
+          <t>-1,15; 5,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 6,62</t>
+          <t>-0,47; 5,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,77; 35,96</t>
+          <t>27,86; 36,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 5,42</t>
+          <t>0,81; 5,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,94</t>
+          <t>2,2; 7,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>36,12; 41,31</t>
+          <t>35,94; 41,12</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 24,39</t>
+          <t>2,41; 23,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,72; 31,58</t>
+          <t>9,79; 31,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>123,05; 161,05</t>
+          <t>122,7; 162,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 14,27</t>
+          <t>-2,62; 14,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 16,26</t>
+          <t>-1,05; 14,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,67; 86,97</t>
+          <t>61,96; 87,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 15,1</t>
+          <t>2,11; 15,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,69; 19,32</t>
+          <t>5,76; 19,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93,31; 114,62</t>
+          <t>92,05; 113,54</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 8,72</t>
+          <t>-3,09; 9,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 6,74</t>
+          <t>-4,91; 6,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,64; 49,99</t>
+          <t>39,45; 50,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 5,21</t>
+          <t>-8,22; 5,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 4,5</t>
+          <t>-8,13; 4,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,01; 38,31</t>
+          <t>27,24; 37,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 5,3</t>
+          <t>-3,09; 5,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 4,18</t>
+          <t>-4,57; 4,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,99; 43,17</t>
+          <t>34,97; 42,85</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 30,1</t>
+          <t>-8,5; 30,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 22,0</t>
+          <t>-13,77; 22,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>109,54; 170,5</t>
+          <t>107,18; 170,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 14,24</t>
+          <t>-18,64; 15,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 11,92</t>
+          <t>-18,24; 10,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>58,58; 103,55</t>
+          <t>59,78; 101,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 15,64</t>
+          <t>-8,05; 16,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 12,26</t>
+          <t>-11,6; 13,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>88,17; 129,08</t>
+          <t>88,87; 126,61</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 5,75</t>
+          <t>0,8; 5,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,57</t>
+          <t>1,0; 6,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>35,12; 39,98</t>
+          <t>35,27; 40,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,67</t>
+          <t>-1,22; 3,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,47</t>
+          <t>-1,44; 3,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,47; 25,25</t>
+          <t>19,49; 25,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,0</t>
+          <t>0,45; 4,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,83</t>
+          <t>0,43; 3,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,84; 31,46</t>
+          <t>27,72; 31,59</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,81; 15,63</t>
+          <t>2,05; 15,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,16; 15,23</t>
+          <t>2,53; 16,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>90,11; 110,48</t>
+          <t>89,76; 110,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 7,63</t>
+          <t>-2,43; 7,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 7,2</t>
+          <t>-2,81; 7,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>38,61; 51,9</t>
+          <t>38,87; 52,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,21; 9,42</t>
+          <t>1,01; 9,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,09; 9,04</t>
+          <t>0,97; 9,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>62,24; 73,86</t>
+          <t>62,37; 74,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Estudios-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>8,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,05</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-9,96</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,25</t>
+          <t>-7,79</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 8,22</t>
+          <t>4,59; 12,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 8,91</t>
+          <t>0,2; 8,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,97; 18,53</t>
+          <t>-10,57; -0,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,79</t>
+          <t>3,68; 9,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 9,47</t>
+          <t>2,64; 8,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 4,34</t>
+          <t>-13,3; -6,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 4,99</t>
+          <t>5,01; 9,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 7,96</t>
+          <t>2,53; 7,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 9,59</t>
+          <t>-10,68; -5,14</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,28%</t>
+          <t>-8,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>-12,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>-10,34%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 17,36</t>
+          <t>6,43; 19,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 18,56</t>
+          <t>0,32; 13,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,0; 39,55</t>
+          <t>-15,29; -1,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 8,24</t>
+          <t>4,5; 11,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 16,86</t>
+          <t>3,16; 10,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 7,68</t>
+          <t>-16,26; -8,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 9,28</t>
+          <t>6,63; 13,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 14,71</t>
+          <t>3,27; 10,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,57; 17,86</t>
+          <t>-14,0; -6,87</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>8,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>45,22</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,34</t>
+          <t>-8,18</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>38,42</t>
+          <t>-6,2</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,13</t>
+          <t>5,27; 12,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 9,59</t>
+          <t>6,29; 12,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41,97; 48,63</t>
+          <t>-14,62; 0,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 5,93</t>
+          <t>2,57; 9,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 5,98</t>
+          <t>0,32; 7,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,86; 36,38</t>
+          <t>-15,17; 10,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,64</t>
+          <t>4,8; 9,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 7,17</t>
+          <t>4,28; 8,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>35,94; 41,12</t>
+          <t>-12,43; 1,68</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>140,38%</t>
+          <t>-11,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>73,28%</t>
+          <t>-15,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>102,94%</t>
+          <t>-13,59%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 23,45</t>
+          <t>13,4; 33,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,79; 31,71</t>
+          <t>15,66; 35,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>122,7; 162,31</t>
+          <t>-36,27; 2,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 14,5</t>
+          <t>4,74; 18,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 14,58</t>
+          <t>0,55; 13,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,96; 87,44</t>
+          <t>-28,3; 20,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 15,82</t>
+          <t>10,28; 21,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,76; 19,98</t>
+          <t>9,18; 20,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>92,05; 113,54</t>
+          <t>-26,97; 3,68</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>44,94</t>
+          <t>-6,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>32,69</t>
+          <t>-17,22</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>39,07</t>
+          <t>-11,3</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 9,31</t>
+          <t>2,05; 14,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 6,69</t>
+          <t>-4,98; 7,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,45; 50,04</t>
+          <t>-12,0; 0,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 5,77</t>
+          <t>-5,38; 8,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 4,03</t>
+          <t>-10,79; 2,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,24; 37,97</t>
+          <t>-23,28; -11,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 5,67</t>
+          <t>0,8; 10,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 4,49</t>
+          <t>-5,7; 3,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,97; 42,85</t>
+          <t>-15,62; -7,46</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>136,68%</t>
+          <t>-15,98%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,37%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,57%</t>
+          <t>-7,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>79,16%</t>
+          <t>-32,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-0,44%</t>
+          <t>-2,42%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>106,22%</t>
+          <t>-24,81%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 30,94</t>
+          <t>4,84; 40,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 22,39</t>
+          <t>-11,8; 19,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>107,18; 170,56</t>
+          <t>-27,8; 1,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 15,11</t>
+          <t>-9,68; 17,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 10,4</t>
+          <t>-18,94; 4,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>59,78; 101,82</t>
+          <t>-40,95; -24,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 16,32</t>
+          <t>1,58; 23,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 13,18</t>
+          <t>-11,7; 7,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>88,87; 126,61</t>
+          <t>-32,38; -17,23</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>37,48</t>
+          <t>-10,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,91</t>
+          <t>-15,23</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>29,48</t>
+          <t>-12,59</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,71</t>
+          <t>4,93; 9,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 6,01</t>
+          <t>1,78; 6,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>35,27; 40,06</t>
+          <t>-17,96; -6,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 3,72</t>
+          <t>2,93; 7,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 3,53</t>
+          <t>-2,5; 2,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,49; 25,29</t>
+          <t>-19,75; -5,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,13</t>
+          <t>4,75; 8,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,86</t>
+          <t>0,36; 3,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,72; 31,59</t>
+          <t>-17,02; -7,8</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>-20,77%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>-0,08%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>44,68%</t>
+          <t>-23,86%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>-22,44%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,05; 15,6</t>
+          <t>10,11; 21,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,53; 16,28</t>
+          <t>3,62; 14,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>89,76; 110,16</t>
+          <t>-37,69; -13,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 7,72</t>
+          <t>4,47; 12,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 7,35</t>
+          <t>-3,89; 3,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>38,87; 52,81</t>
+          <t>-30,5; -8,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,01; 9,69</t>
+          <t>8,32; 14,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,97; 9,12</t>
+          <t>0,63; 6,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>62,37; 74,42</t>
+          <t>-30,06; -13,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Estudios-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna condición</t>
+          <t>Hogares que tienen personas con alguna condición, enfermedad crónica o limitación</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 12,63</t>
+          <t>4,08; 12,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 8,97</t>
+          <t>0,46; 9,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,57; -0,96</t>
+          <t>-10,18; -0,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 9,38</t>
+          <t>3,51; 9,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,64; 8,51</t>
+          <t>2,36; 8,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,3; -6,45</t>
+          <t>-13,23; -6,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,01; 9,88</t>
+          <t>5,25; 9,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,69</t>
+          <t>2,43; 7,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,68; -5,14</t>
+          <t>-10,59; -4,9</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,43; 19,23</t>
+          <t>5,77; 18,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 13,54</t>
+          <t>0,64; 13,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,29; -1,5</t>
+          <t>-14,65; -1,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 11,89</t>
+          <t>4,28; 11,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 10,65</t>
+          <t>2,86; 11,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,26; -8,1</t>
+          <t>-16,15; -8,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,63; 13,44</t>
+          <t>6,88; 13,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 10,33</t>
+          <t>3,17; 10,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-14,0; -6,87</t>
+          <t>-13,96; -6,58</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,27; 12,05</t>
+          <t>5,55; 12,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,29; 12,94</t>
+          <t>6,11; 12,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 0,98</t>
+          <t>-16,0; 0,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 9,63</t>
+          <t>2,59; 9,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 7,0</t>
+          <t>0,28; 6,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 10,84</t>
+          <t>-15,26; 6,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 9,55</t>
+          <t>4,92; 9,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 8,95</t>
+          <t>4,28; 9,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 1,68</t>
+          <t>-11,82; 2,4</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,4; 33,06</t>
+          <t>13,64; 32,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,66; 35,5</t>
+          <t>15,26; 33,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 2,41</t>
+          <t>-40,16; 1,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 18,81</t>
+          <t>4,76; 18,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 13,42</t>
+          <t>0,52; 13,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,3; 20,45</t>
+          <t>-28,39; 12,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,28; 21,72</t>
+          <t>10,56; 20,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,18; 20,27</t>
+          <t>9,15; 20,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-26,97; 3,68</t>
+          <t>-25,57; 5,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,05; 14,58</t>
+          <t>1,55; 14,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 7,0</t>
+          <t>-4,95; 7,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 0,27</t>
+          <t>-11,94; -0,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 8,48</t>
+          <t>-4,3; 8,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 2,04</t>
+          <t>-10,32; 1,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,28; -11,99</t>
+          <t>-23,23; -11,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 10,31</t>
+          <t>0,22; 9,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 3,16</t>
+          <t>-5,56; 3,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-15,62; -7,46</t>
+          <t>-15,16; -6,97</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,84; 40,29</t>
+          <t>3,34; 39,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 19,42</t>
+          <t>-11,65; 21,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 1,36</t>
+          <t>-28,25; -0,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 17,8</t>
+          <t>-7,89; 17,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 4,05</t>
+          <t>-18,97; 3,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,95; -24,14</t>
+          <t>-41,46; -22,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,58; 23,9</t>
+          <t>0,82; 22,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 7,29</t>
+          <t>-11,81; 7,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,38; -17,23</t>
+          <t>-31,63; -16,31</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,93; 9,94</t>
+          <t>4,86; 9,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,69</t>
+          <t>1,57; 6,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,96; -6,17</t>
+          <t>-18,43; -5,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,93; 7,73</t>
+          <t>3,23; 7,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2,18</t>
+          <t>-2,41; 2,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,75; -5,78</t>
+          <t>-19,58; -4,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,75; 8,18</t>
+          <t>4,71; 8,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,74</t>
+          <t>0,38; 3,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,02; -7,8</t>
+          <t>-16,85; -7,74</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,11; 21,09</t>
+          <t>9,86; 20,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,62; 14,32</t>
+          <t>3,21; 14,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-37,69; -13,14</t>
+          <t>-38,16; -12,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,47; 12,27</t>
+          <t>5,03; 12,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 3,5</t>
+          <t>-3,77; 3,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,5; -8,88</t>
+          <t>-30,37; -7,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,32; 14,74</t>
+          <t>8,25; 14,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,63; 6,78</t>
+          <t>0,67; 6,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-30,06; -13,72</t>
+          <t>-30,06; -13,76</t>
         </is>
       </c>
     </row>
